--- a/target/test-classes/logintestdata.xlsx
+++ b/target/test-classes/logintestdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\SeleniumHybridFrmamework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6926513B-A0F6-4A1C-84FB-986ACB3B2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5970DB6-E7AC-474A-BA7C-4A4598C9FAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39B92E74-46E2-41DF-9706-961245932289}"/>
   </bookViews>
@@ -36,22 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>lokesh</t>
+  </si>
+  <si>
+    <t>Lok999@#/</t>
+  </si>
+  <si>
+    <t>yogesh</t>
+  </si>
+  <si>
+    <t>Yog999@#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,13 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A84B20A-701A-403D-9C41-4231F10830B3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -409,7 +438,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{18A87BB8-B815-4D05-9CF5-27A5C192C6DA}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{18FB2FC3-5D21-4CD2-B690-D1BBC0B62E31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>